--- a/submissions/submission_results.xlsx
+++ b/submissions/submission_results.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Pessoal\kaggle-forest_cover_type_prediction\submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67B1E3-A6B2-4078-9B36-E22FB11D6D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C908CAB-D4CE-4543-922B-B6C8E57B251A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="17760" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Private Score</t>
   </si>
@@ -47,13 +56,49 @@
   <si>
     <t>No Pre-Processing or FE
 Just remove the ID column</t>
+  </si>
+  <si>
+    <t>Accuracy train data</t>
+  </si>
+  <si>
+    <t>Accuracy test data</t>
+  </si>
+  <si>
+    <t>cross_val_score</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.71 (+/- 0.08)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>2-sub_randomforest</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.78 (+/- 0.09)</t>
+  </si>
+  <si>
+    <t>3-sub_catboost_pycaret</t>
+  </si>
+  <si>
+    <t>CatBoost (PyCarte)</t>
+  </si>
+  <si>
+    <t>PyCaret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +108,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,10 +160,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,9 +181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,6 +200,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112690</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F0DFE4-FBA0-44F3-A5AB-D8B331C3F428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12869333" y="476250"/>
+          <a:ext cx="4409524" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,23 +514,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -432,76 +541,156 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44063</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.64415</v>
       </c>
-      <c r="D2" s="3">
+      <c r="H2" s="3">
         <v>0.64415</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44065</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.72909000000000002</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.72909000000000002</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44073</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3">
+        <v>0.71897</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.71897</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C8">
+  <conditionalFormatting sqref="G2:G8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -513,7 +702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="H2:H8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -527,5 +716,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>